--- a/biology/Médecine/1303_en_santé_et_médecine/1303_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1303_en_santé_et_médecine/1303_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1303_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1303_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1303 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1303_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1303_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>20 avril : par la bulle « In supremae praeminentia dignitatis », le pape Boniface VIII fonde « la première université de Rome, qui inclut naturellement l'enseignement de la médecine[1] », et qui prendra au XVe siècle le nom d'université « La Sapienza » .
-2 juillet : une bulle du pape Boniface VIII érige les écoles d'Avignon en studium generale, acte qui peut être tenu pour fondateur de l'université d'Avignon, laquelle comprend dès l'origine les quatre facultés, y compris donc celle de médecine[2].
-L'hôpital San Paolo (Ospedale di San Paolo) est attesté à Sassari en Sardaigne[3].
-Fondation de l'hôpital Saint-Julien à Anvers en Flandre, rue de l'Étuve, par Ida van der Lischt et le chanoine Jean Tuclant[4], « pour les malades qui revenaient de la Terre sainte et où l'on re[cevra] encore [en 1841] les pauvres voyageurs pour une nuit[5] ».
-Fondation par les Payrol de l'hôpital Sainte-Catherine de Bruniquel en Quercy, aux limites du Rouergue et de l'Albigeois, sur le chemin de Compostelle, pour l'accueil des pèlerins et des marchands[6].
-Pierre Rotberti[7], chirurgien, Pierre Serpolh[7] et Raymond Javeni[7], médecins, examinent pour une fracture de la jambe Draconnet de Montauban, abbé d'Aurillac, au château abbatial de Belbex[8].
-Vers 1303 : une léproserie est attestée au Val Boutry près Saint-Évroult en Normandie[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20 avril : par la bulle « In supremae praeminentia dignitatis », le pape Boniface VIII fonde « la première université de Rome, qui inclut naturellement l'enseignement de la médecine », et qui prendra au XVe siècle le nom d'université « La Sapienza » .
+2 juillet : une bulle du pape Boniface VIII érige les écoles d'Avignon en studium generale, acte qui peut être tenu pour fondateur de l'université d'Avignon, laquelle comprend dès l'origine les quatre facultés, y compris donc celle de médecine.
+L'hôpital San Paolo (Ospedale di San Paolo) est attesté à Sassari en Sardaigne.
+Fondation de l'hôpital Saint-Julien à Anvers en Flandre, rue de l'Étuve, par Ida van der Lischt et le chanoine Jean Tuclant, « pour les malades qui revenaient de la Terre sainte et où l'on re[cevra] encore [en 1841] les pauvres voyageurs pour une nuit ».
+Fondation par les Payrol de l'hôpital Sainte-Catherine de Bruniquel en Quercy, aux limites du Rouergue et de l'Albigeois, sur le chemin de Compostelle, pour l'accueil des pèlerins et des marchands.
+Pierre Rotberti, chirurgien, Pierre Serpolh et Raymond Javeni, médecins, examinent pour une fracture de la jambe Draconnet de Montauban, abbé d'Aurillac, au château abbatial de Belbex.
+Vers 1303 : une léproserie est attestée au Val Boutry près Saint-Évroult en Normandie.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1303_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1303_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pierre d'Abano (vers 1257-1315), médecin, astrologue et philosophe italien, achève la rédaction du Conciliator differentiarum philosophorum et precipue medicorum[10], qui lui vaudra le surnom de « Conciliator »[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pierre d'Abano (vers 1257-1315), médecin, astrologue et philosophe italien, achève la rédaction du Conciliator differentiarum philosophorum et precipue medicorum, qui lui vaudra le surnom de « Conciliator ».</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1303_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1303_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1287-1303 : fl. Isaac ben Mardochée (en), médecin des papes Nicolas IV et Boniface VIII[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1287-1303 : fl. Isaac ben Mardochée (en), médecin des papes Nicolas IV et Boniface VIII.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1303_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1303_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1302 ou 1303 : Jean Dupin (mort en 1372), moine de l'abbaye de Vaucelles près Cambrai, théologien, orateur, poète ; et médecin, d'après La Croix du Maine, bien que les ouvrages qu'on lui attribue, parmi lesquels il faut compter le Livre de Mandevie[13], n'aient aucun rapport avec la médecine[14],[15].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1302 ou 1303 : Jean Dupin (mort en 1372), moine de l'abbaye de Vaucelles près Cambrai, théologien, orateur, poète ; et médecin, d'après La Croix du Maine, bien que les ouvrages qu'on lui attribue, parmi lesquels il faut compter le Livre de Mandevie, n'aient aucun rapport avec la médecine,.</t>
         </is>
       </c>
     </row>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1303_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1303_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,9 +657,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ninsho (ou Ryokan) (né en 1217), prêtre japonais, fondateur d'institutions de soins pour les malades et les invalides[16].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ninsho (ou Ryokan) (né en 1217), prêtre japonais, fondateur d'institutions de soins pour les malades et les invalides.</t>
         </is>
       </c>
     </row>
